--- a/spliced/struggle/2023-04-06_17-41-50/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-41-50/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>-5.154085397720357</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.9749262332916433</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.300361778587099</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-6.267426431179062</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-3.844243764877326</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.833226948976521</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.409952521324157</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.4797788858413697</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.523662269115448</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.702465817332268</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.155098915100098</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.092013478279114</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.727226853370667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.098365545272828</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.6193101108074199</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1845241859555233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.8518145084381094</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.03355145454406605</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7549576908350003</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.405293345451355</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8384262472391129</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3231545425951481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2438197135925255</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4860433936119046</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.09267929568886754</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.07322704792022328</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1344193816185026</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.148086081258953</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.4853796958923352</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7483796477317809</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1751452423632148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
